--- a/data/trans_bre/P16-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>16.21823189040259</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14.42109212018446</v>
+        <v>14.42109212018445</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2517536989771608</v>
@@ -649,7 +649,7 @@
         <v>0.2372847580854627</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2126437388494418</v>
+        <v>0.2126437388494416</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>11.3459067782492</v>
+        <v>11.51616349539773</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.547735334111989</v>
+        <v>9.804417524541496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12.04143065804617</v>
+        <v>12.24513774491133</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.01660271884587</v>
+        <v>9.728860783940519</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1784610225225664</v>
+        <v>0.1837249751296401</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1285865912217548</v>
+        <v>0.132098284929867</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1702279999582806</v>
+        <v>0.1705946783038388</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1406332705918228</v>
+        <v>0.1367746388044729</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.13645642843212</v>
+        <v>19.37305906730262</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.04203249960117</v>
+        <v>17.05253921333931</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.02443087593808</v>
+        <v>20.37727503778141</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.28772768458164</v>
+        <v>18.92787587338213</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3257903450620181</v>
+        <v>0.3315578853442308</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2471753495979259</v>
+        <v>0.246932833486999</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3063922117514694</v>
+        <v>0.3108864111377227</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2989702336531714</v>
+        <v>0.2922729509843862</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>13.49925006465751</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.861752119544033</v>
+        <v>9.861752119544043</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5215784768661169</v>
@@ -749,7 +749,7 @@
         <v>0.3055857839471853</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2049967603478424</v>
+        <v>0.2049967603478427</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>12.6441639619129</v>
+        <v>12.15912076978192</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.690601254368</v>
+        <v>16.2936134079139</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10.617917855885</v>
+        <v>10.21897404803027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.630424417985694</v>
+        <v>6.596620517406422</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.398719889689545</v>
+        <v>0.3890637458903</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3793267974900326</v>
+        <v>0.3712467666849663</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2324085570107999</v>
+        <v>0.2229946505802352</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1336325697238031</v>
+        <v>0.1316020921883337</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>19.35668580235865</v>
+        <v>19.10518543244937</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>23.02641090895532</v>
+        <v>22.75681895975107</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.95395484360836</v>
+        <v>16.47632421379677</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.12612030364377</v>
+        <v>12.84309226063716</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6831838889582083</v>
+        <v>0.6738126027886102</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5696079281991141</v>
+        <v>0.566324997520578</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3949792836363634</v>
+        <v>0.3876361177476304</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2835790314627508</v>
+        <v>0.2792954851103034</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>11.32599185999353</v>
+        <v>11.20583145523287</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.97386859335665</v>
+        <v>11.26698837060709</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.899327681860385</v>
+        <v>3.447480148143198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1660763592355271</v>
+        <v>0.02440404680854743</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.303898950054511</v>
+        <v>0.3016718212059807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.241935450393959</v>
+        <v>0.2515605965705628</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08222538765131943</v>
+        <v>0.0728639736891529</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.003973889732728365</v>
+        <v>2.33687890576428e-05</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>23.80407480854578</v>
+        <v>23.73551180002596</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>25.33860340724647</v>
+        <v>25.00824289133339</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.27180227467734</v>
+        <v>16.20844135507318</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.68354107599444</v>
+        <v>10.30840239097745</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7854486078385338</v>
+        <v>0.7886225365683498</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6848668222999945</v>
+        <v>0.6823589888913003</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3885513126858759</v>
+        <v>0.3950544354835167</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2135619280757785</v>
+        <v>0.2087769280744281</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>15.14466412990626</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11.03889810754317</v>
+        <v>11.03889810754316</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4449882143013292</v>
@@ -949,7 +949,7 @@
         <v>0.30475054587991</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2110957227530854</v>
+        <v>0.2110957227530852</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>15.35492226838481</v>
+        <v>15.60561718307816</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.56700566982542</v>
+        <v>17.19009170966554</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12.90215222960421</v>
+        <v>12.74889766555632</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8.421603723609104</v>
+        <v>8.765517041480663</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3696401810412749</v>
+        <v>0.3700106444989856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3402755916177121</v>
+        <v>0.3323224068956768</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2517831158067843</v>
+        <v>0.249494972090351</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1553809457021831</v>
+        <v>0.1636420575183362</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.39328781564415</v>
+        <v>20.41217165302005</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.96836253032345</v>
+        <v>22.25586756004598</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.47593373741217</v>
+        <v>17.55865318963126</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.38516738829116</v>
+        <v>13.54668480295254</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.523032639337741</v>
+        <v>0.5197511961601252</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.451010901880726</v>
+        <v>0.4548482169496441</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3591172586099581</v>
+        <v>0.3625341852099352</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2622194042436621</v>
+        <v>0.2657913970760977</v>
       </c>
     </row>
     <row r="16">
